--- a/data/master_box_list.xlsx
+++ b/data/master_box_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59378680-B2F3-6D4A-8A52-7842ADD8C9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816804E-2713-F84E-B20D-59D7CDF899D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7000" yWindow="820" windowWidth="23020" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>Box_Bag</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Molecular -40C freezer</t>
   </si>
   <si>
-    <t>BIOCODE -40C freezer</t>
-  </si>
-  <si>
     <t>Mesh Bag (orange)</t>
   </si>
   <si>
@@ -141,6 +138,27 @@
   </si>
   <si>
     <t>Airbrushed host tissue fractions</t>
+  </si>
+  <si>
+    <t>Tranport Bag</t>
+  </si>
+  <si>
+    <t>Green mesh</t>
+  </si>
+  <si>
+    <t>Red mesh</t>
+  </si>
+  <si>
+    <t>Yellow mesh</t>
+  </si>
+  <si>
+    <t>2022 ACR larvae Box M1</t>
+  </si>
+  <si>
+    <t>2022 ACR larvae Box M2</t>
+  </si>
+  <si>
+    <t>Acropora 2022 metabolomics/lipids samples</t>
   </si>
 </sst>
 </file>
@@ -523,28 +541,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:J250"/>
+  <dimension ref="A1:K250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -561,14 +579,17 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -576,19 +597,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -596,19 +620,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -616,19 +643,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -636,19 +666,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -656,19 +689,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -676,19 +712,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -696,19 +735,22 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -716,19 +758,22 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -736,19 +781,22 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -756,833 +804,999 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="G145" s="1"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F145" s="1"/>
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F146" s="1"/>
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F147" s="1"/>
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F148" s="1"/>
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F149" s="1"/>
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F150" s="1"/>
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F151" s="1"/>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F152" s="1"/>
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="G153" s="1"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F153" s="1"/>
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F154" s="1"/>
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F155" s="1"/>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F156" s="1"/>
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F157" s="1"/>
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F158" s="1"/>
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F159" s="1"/>
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F160" s="1"/>
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F161" s="1"/>
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F162" s="1"/>
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F163" s="1"/>
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F164" s="1"/>
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F165" s="1"/>
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F166" s="1"/>
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="G167" s="1"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F167" s="1"/>
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F168" s="1"/>
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="G169" s="1"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F169" s="1"/>
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F170" s="1"/>
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F171" s="1"/>
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F172" s="1"/>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F173" s="1"/>
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F174" s="1"/>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F175" s="1"/>
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F176" s="1"/>
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F177" s="1"/>
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F178" s="1"/>
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F179" s="1"/>
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F180" s="1"/>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="E181" s="1"/>
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F181" s="1"/>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F182" s="1"/>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="E183" s="1"/>
-      <c r="G183" s="1"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F183" s="1"/>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="E184" s="1"/>
-      <c r="G184" s="1"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F184" s="1"/>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F185" s="1"/>
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F186" s="1"/>
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F187" s="1"/>
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F188" s="1"/>
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F189" s="1"/>
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F190" s="1"/>
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F191" s="1"/>
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F192" s="1"/>
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F193" s="1"/>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F194" s="1"/>
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F195" s="1"/>
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F196" s="1"/>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F197" s="1"/>
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F198" s="1"/>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F199" s="1"/>
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F200" s="1"/>
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="G201" s="1"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F201" s="1"/>
+      <c r="H201" s="1"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F202" s="1"/>
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="G203" s="1"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F203" s="1"/>
+      <c r="H203" s="1"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="G204" s="1"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F204" s="1"/>
+      <c r="H204" s="1"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="G205" s="1"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F205" s="1"/>
+      <c r="H205" s="1"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F206" s="1"/>
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="G207" s="1"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F207" s="1"/>
+      <c r="H207" s="1"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F208" s="1"/>
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F209" s="1"/>
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F210" s="1"/>
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="G211" s="1"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F211" s="1"/>
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="G212" s="1"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F212" s="1"/>
+      <c r="H212" s="1"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="E213" s="1"/>
-      <c r="G213" s="1"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F213" s="1"/>
+      <c r="H213" s="1"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="E214" s="1"/>
-      <c r="G214" s="1"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F214" s="1"/>
+      <c r="H214" s="1"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="E215" s="1"/>
-      <c r="G215" s="1"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F215" s="1"/>
+      <c r="H215" s="1"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="E216" s="1"/>
-      <c r="G216" s="1"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F216" s="1"/>
+      <c r="H216" s="1"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="E217" s="1"/>
-      <c r="G217" s="1"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F217" s="1"/>
+      <c r="H217" s="1"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="G218" s="1"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F218" s="1"/>
+      <c r="H218" s="1"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="E219" s="1"/>
-      <c r="G219" s="1"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F219" s="1"/>
+      <c r="H219" s="1"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="E220" s="1"/>
-      <c r="G220" s="1"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F220" s="1"/>
+      <c r="H220" s="1"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="E221" s="1"/>
-      <c r="G221" s="1"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F221" s="1"/>
+      <c r="H221" s="1"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="G222" s="1"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F222" s="1"/>
+      <c r="H222" s="1"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="G223" s="1"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F223" s="1"/>
+      <c r="H223" s="1"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="G224" s="1"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F224" s="1"/>
+      <c r="H224" s="1"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="G225" s="1"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F225" s="1"/>
+      <c r="H225" s="1"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="G226" s="1"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F226" s="1"/>
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="G227" s="1"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F227" s="1"/>
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="E228" s="1"/>
-      <c r="G228" s="1"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F228" s="1"/>
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="E229" s="1"/>
-      <c r="G229" s="1"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F229" s="1"/>
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="E230" s="1"/>
-      <c r="G230" s="1"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F230" s="1"/>
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="G231" s="1"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F231" s="1"/>
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="E232" s="1"/>
-      <c r="G232" s="1"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F232" s="1"/>
+      <c r="H232" s="1"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="E233" s="1"/>
-      <c r="G233" s="1"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F233" s="1"/>
+      <c r="H233" s="1"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="G234" s="1"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F234" s="1"/>
+      <c r="H234" s="1"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="G235" s="1"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F235" s="1"/>
+      <c r="H235" s="1"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="G236" s="1"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F236" s="1"/>
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="E237" s="1"/>
-      <c r="G237" s="1"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F237" s="1"/>
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="G238" s="1"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F238" s="1"/>
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="E239" s="1"/>
-      <c r="G239" s="1"/>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F239" s="1"/>
+      <c r="H239" s="1"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="E240" s="1"/>
-      <c r="G240" s="1"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F240" s="1"/>
+      <c r="H240" s="1"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="E241" s="1"/>
-      <c r="G241" s="1"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F241" s="1"/>
+      <c r="H241" s="1"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="G242" s="1"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F242" s="1"/>
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="G243" s="1"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F243" s="1"/>
+      <c r="H243" s="1"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="E244" s="1"/>
-      <c r="G244" s="1"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F244" s="1"/>
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="E245" s="1"/>
-      <c r="G245" s="1"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F245" s="1"/>
+      <c r="H245" s="1"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="E246" s="1"/>
-      <c r="G246" s="1"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F246" s="1"/>
+      <c r="H246" s="1"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="E247" s="1"/>
-      <c r="G247" s="1"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F247" s="1"/>
+      <c r="H247" s="1"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="E248" s="1"/>
-      <c r="G248" s="1"/>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F248" s="1"/>
+      <c r="H248" s="1"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="E249" s="1"/>
-      <c r="G249" s="1"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F249" s="1"/>
+      <c r="H249" s="1"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="E250" s="1"/>
-      <c r="G250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="H250" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/master_box_list.xlsx
+++ b/data/master_box_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2816804E-2713-F84E-B20D-59D7CDF899D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3DA1EB-EB64-6247-B32A-50CE48ED621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7000" yWindow="820" windowWidth="23020" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>Box_Bag</t>
   </si>
@@ -50,18 +50,6 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
     <t>Mesh Bag</t>
   </si>
   <si>
@@ -159,6 +147,36 @@
   </si>
   <si>
     <t>Acropora 2022 metabolomics/lipids samples</t>
+  </si>
+  <si>
+    <t>Symbiotic Exchange 2023 Box 1</t>
+  </si>
+  <si>
+    <t>Symbiotic Exchange 2023 Box 2</t>
+  </si>
+  <si>
+    <t>Symbiotic Exchange 2023 Box 3</t>
+  </si>
+  <si>
+    <t>Symbiotic Exchange 2023 Box 4</t>
+  </si>
+  <si>
+    <t>Symbiotic Exchange 2023 Box 5</t>
+  </si>
+  <si>
+    <t>Symbiotic Exchange 2023 Box 6</t>
+  </si>
+  <si>
+    <t>Symbiotic Exchange Box S1</t>
+  </si>
+  <si>
+    <t>Symbiotic Exchange Box S2</t>
+  </si>
+  <si>
+    <t>Symbiotic Exchange Box H1</t>
+  </si>
+  <si>
+    <t>Symbiotic Exchange Box H2</t>
   </si>
 </sst>
 </file>
@@ -545,7 +563,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -579,10 +597,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -590,348 +608,348 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/master_box_list.xlsx
+++ b/data/master_box_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3DA1EB-EB64-6247-B32A-50CE48ED621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3663CE6D-CF3D-334A-AE15-200904A156F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="820" windowWidth="23020" windowHeight="17560" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="-34460" yWindow="-1000" windowWidth="30240" windowHeight="18540" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>Box_Bag</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>Mesh Bag</t>
-  </si>
-  <si>
     <t>Molecular 4C fridge</t>
   </si>
   <si>
@@ -177,6 +174,18 @@
   </si>
   <si>
     <t>Symbiotic Exchange Box H2</t>
+  </si>
+  <si>
+    <t>Storage at URI</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Mesh Bag (green)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesh Bag (blue) </t>
   </si>
 </sst>
 </file>
@@ -220,12 +229,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,11 +255,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +579,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +590,7 @@
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
@@ -588,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -597,359 +613,415 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>-80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>-80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>-80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>-80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>-80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>-80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>-80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>-80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>-80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/master_box_list.xlsx
+++ b/data/master_box_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3663CE6D-CF3D-334A-AE15-200904A156F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE726961-B847-664E-A6C1-266E0EFDF2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34460" yWindow="-1000" windowWidth="30240" windowHeight="18540" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="5220" yWindow="760" windowWidth="25020" windowHeight="17700" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>Box_Bag</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t xml:space="preserve">Mesh Bag (blue) </t>
+  </si>
+  <si>
+    <t>Shipment</t>
+  </si>
+  <si>
+    <t>April 1 2024</t>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not yet </t>
   </si>
 </sst>
 </file>
@@ -279,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,7 +331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -425,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:K250"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,13 +602,13 @@
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,11 +633,14 @@
       <c r="H1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -651,10 +666,13 @@
         <v>-80</v>
       </c>
       <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -680,10 +698,13 @@
         <v>-80</v>
       </c>
       <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -709,10 +730,13 @@
         <v>-80</v>
       </c>
       <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -738,10 +762,13 @@
         <v>-80</v>
       </c>
       <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -764,7 +791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -784,16 +811,16 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H7">
         <v>-80</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -816,7 +843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -839,7 +866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -862,7 +889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -885,7 +912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -905,16 +932,16 @@
         <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H12">
         <v>-80</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -934,16 +961,16 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <v>-80</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -966,7 +993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -986,16 +1013,16 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H15">
         <v>-80</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1015,878 +1042,986 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H16">
         <v>-80</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="H143" s="1"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="H144" s="1"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="H147" s="1"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="H148" s="1"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="H149" s="1"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="H156" s="1"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="H157" s="1"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="H158" s="1"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="H160" s="1"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="H164" s="1"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="H166" s="1"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="H172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="H174" s="1"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="H176" s="1"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="H178" s="1"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="H179" s="1"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="H182" s="1"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="H188" s="1"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="H190" s="1"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="H191" s="1"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="H192" s="1"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="H196" s="1"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="H198" s="1"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="H199" s="1"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="H200" s="1"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="H201" s="1"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="H202" s="1"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="H203" s="1"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="H204" s="1"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="H205" s="1"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="H206" s="1"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="H207" s="1"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="H208" s="1"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="H209" s="1"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="H210" s="1"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="H211" s="1"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="H212" s="1"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="H213" s="1"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="H214" s="1"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="H215" s="1"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="H216" s="1"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="H217" s="1"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="H218" s="1"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="H219" s="1"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="H220" s="1"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="H221" s="1"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="H222" s="1"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="H223" s="1"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="H224" s="1"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="H225" s="1"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="H226" s="1"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="H227" s="1"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="H228" s="1"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="H229" s="1"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="H230" s="1"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="H231" s="1"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="H232" s="1"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="H233" s="1"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="H234" s="1"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="H235" s="1"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="H236" s="1"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="H237" s="1"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="H238" s="1"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="H239" s="1"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="H240" s="1"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="H241" s="1"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="H242" s="1"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="H243" s="1"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="H244" s="1"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="H245" s="1"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="H246" s="1"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="H247" s="1"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="H248" s="1"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="H249" s="1"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/master_box_list.xlsx
+++ b/data/master_box_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE726961-B847-664E-A6C1-266E0EFDF2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81323A6-6D01-DB4A-9E7D-570A645D4576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="760" windowWidth="25020" windowHeight="17700" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="-28640" yWindow="-560" windowWidth="25020" windowHeight="17700" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
   <si>
     <t>Box_Bag</t>
   </si>
@@ -194,10 +194,7 @@
     <t>April 1 2024</t>
   </si>
   <si>
-    <t>not yet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not yet </t>
+    <t>Feb 5 2024</t>
   </si>
 </sst>
 </file>
@@ -591,7 +588,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,10 +808,13 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>-80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
@@ -932,10 +932,13 @@
         <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>-80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
@@ -961,10 +964,13 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>-80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
       </c>
       <c r="J13" t="s">
         <v>47</v>
@@ -1013,10 +1019,13 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>-80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
@@ -1042,10 +1051,13 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>-80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>

--- a/data/master_box_list.xlsx
+++ b/data/master_box_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81323A6-6D01-DB4A-9E7D-570A645D4576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A590227C-BBFB-7247-B1CD-B180068449B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28640" yWindow="-560" windowWidth="25020" windowHeight="17700" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21880" windowHeight="16860" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
   <si>
     <t>Box_Bag</t>
   </si>
@@ -195,6 +195,39 @@
   </si>
   <si>
     <t>Feb 5 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport to UW </t>
+  </si>
+  <si>
+    <t>no, processed at URI</t>
+  </si>
+  <si>
+    <t>RNA from PR rate samples (taken from boxes 1-3)</t>
+  </si>
+  <si>
+    <t>freezer -80C</t>
+  </si>
+  <si>
+    <t>URI Location</t>
+  </si>
+  <si>
+    <t>Chest freezer</t>
+  </si>
+  <si>
+    <t>Freezer G</t>
+  </si>
+  <si>
+    <t>Transport date</t>
+  </si>
+  <si>
+    <t>UW location</t>
+  </si>
+  <si>
+    <t>RNA Box 1</t>
+  </si>
+  <si>
+    <t>RNA Box 2</t>
   </si>
 </sst>
 </file>
@@ -264,12 +297,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,11 +618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:L250"/>
+  <dimension ref="A1:M250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,13 +633,13 @@
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" customWidth="1"/>
-    <col min="8" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="8" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,11 +667,20 @@
       <c r="I1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -666,10 +709,13 @@
         <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -698,10 +744,13 @@
         <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -730,10 +779,13 @@
         <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -762,10 +814,16 @@
         <v>51</v>
       </c>
       <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="5">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -788,7 +846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -817,10 +875,16 @@
         <v>52</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="5">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -843,7 +907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -866,7 +930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -889,7 +953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -912,7 +976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -941,10 +1005,16 @@
         <v>52</v>
       </c>
       <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="5">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -973,10 +1043,16 @@
         <v>52</v>
       </c>
       <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="5">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -999,7 +1075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1015,9 +1091,6 @@
       <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -1028,10 +1101,16 @@
         <v>52</v>
       </c>
       <c r="J15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="5">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1047,9 +1126,6 @@
       <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -1060,10 +1136,86 @@
         <v>52</v>
       </c>
       <c r="J16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L16" s="5">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>-80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>-80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="5">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1071,8 +1223,9 @@
       <c r="F143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1080,8 +1233,9 @@
       <c r="F144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1089,8 +1243,9 @@
       <c r="F145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1098,8 +1253,9 @@
       <c r="F146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1107,8 +1263,9 @@
       <c r="F147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1116,8 +1273,9 @@
       <c r="F148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1125,8 +1283,9 @@
       <c r="F149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1134,8 +1293,9 @@
       <c r="F150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1143,8 +1303,9 @@
       <c r="F151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1152,8 +1313,9 @@
       <c r="F152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1161,8 +1323,9 @@
       <c r="F153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1170,8 +1333,9 @@
       <c r="F154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1179,8 +1343,9 @@
       <c r="F155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1188,8 +1353,9 @@
       <c r="F156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1197,8 +1363,9 @@
       <c r="F157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1206,8 +1373,9 @@
       <c r="F158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1215,8 +1383,9 @@
       <c r="F159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1224,8 +1393,9 @@
       <c r="F160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1233,8 +1403,9 @@
       <c r="F161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1242,8 +1413,9 @@
       <c r="F162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1251,8 +1423,9 @@
       <c r="F163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1260,8 +1433,9 @@
       <c r="F164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164" s="1"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1269,8 +1443,9 @@
       <c r="F165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -1278,8 +1453,9 @@
       <c r="F166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -1287,8 +1463,9 @@
       <c r="F167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -1296,8 +1473,9 @@
       <c r="F168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -1305,8 +1483,9 @@
       <c r="F169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169" s="1"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -1314,8 +1493,9 @@
       <c r="F170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -1323,8 +1503,9 @@
       <c r="F171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -1332,8 +1513,9 @@
       <c r="F172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -1341,8 +1523,9 @@
       <c r="F173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -1350,8 +1533,9 @@
       <c r="F174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -1359,8 +1543,9 @@
       <c r="F175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -1368,8 +1553,9 @@
       <c r="F176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -1377,8 +1563,9 @@
       <c r="F177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -1386,8 +1573,9 @@
       <c r="F178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -1395,8 +1583,9 @@
       <c r="F179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -1404,8 +1593,9 @@
       <c r="F180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -1413,8 +1603,9 @@
       <c r="F181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -1422,8 +1613,9 @@
       <c r="F182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -1431,8 +1623,9 @@
       <c r="F183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -1440,8 +1633,9 @@
       <c r="F184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -1449,8 +1643,9 @@
       <c r="F185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -1458,8 +1653,9 @@
       <c r="F186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -1467,8 +1663,9 @@
       <c r="F187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -1476,8 +1673,9 @@
       <c r="F188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -1485,8 +1683,9 @@
       <c r="F189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -1494,8 +1693,9 @@
       <c r="F190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -1503,8 +1703,9 @@
       <c r="F191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -1512,8 +1713,9 @@
       <c r="F192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -1521,8 +1723,9 @@
       <c r="F193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -1530,8 +1733,9 @@
       <c r="F194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -1539,8 +1743,9 @@
       <c r="F195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -1548,8 +1753,9 @@
       <c r="F196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -1557,8 +1763,9 @@
       <c r="F197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -1566,8 +1773,9 @@
       <c r="F198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198" s="1"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -1575,8 +1783,9 @@
       <c r="F199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199" s="1"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -1584,8 +1793,9 @@
       <c r="F200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" s="1"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -1593,8 +1803,9 @@
       <c r="F201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -1602,8 +1813,9 @@
       <c r="F202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202" s="1"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -1611,8 +1823,9 @@
       <c r="F203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203" s="1"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -1620,8 +1833,9 @@
       <c r="F204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204" s="1"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -1629,8 +1843,9 @@
       <c r="F205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205" s="1"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -1638,8 +1853,9 @@
       <c r="F206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206" s="1"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -1647,8 +1863,9 @@
       <c r="F207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207" s="1"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -1656,8 +1873,9 @@
       <c r="F208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208" s="1"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -1665,8 +1883,9 @@
       <c r="F209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209" s="1"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -1674,8 +1893,9 @@
       <c r="F210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -1683,8 +1903,9 @@
       <c r="F211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J211" s="1"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -1692,8 +1913,9 @@
       <c r="F212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212" s="1"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -1701,8 +1923,9 @@
       <c r="F213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213" s="1"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -1710,8 +1933,9 @@
       <c r="F214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214" s="1"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -1719,8 +1943,9 @@
       <c r="F215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215" s="1"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -1728,8 +1953,9 @@
       <c r="F216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216" s="1"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -1737,8 +1963,9 @@
       <c r="F217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217" s="1"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -1746,8 +1973,9 @@
       <c r="F218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218" s="1"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -1755,8 +1983,9 @@
       <c r="F219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219" s="1"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -1764,8 +1993,9 @@
       <c r="F220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220" s="1"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -1773,8 +2003,9 @@
       <c r="F221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221" s="1"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -1782,8 +2013,9 @@
       <c r="F222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222" s="1"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -1791,8 +2023,9 @@
       <c r="F223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" s="1"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -1800,8 +2033,9 @@
       <c r="F224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" s="1"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -1809,8 +2043,9 @@
       <c r="F225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225" s="1"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -1818,8 +2053,9 @@
       <c r="F226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226" s="1"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -1827,8 +2063,9 @@
       <c r="F227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227" s="1"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -1836,8 +2073,9 @@
       <c r="F228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J228" s="1"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -1845,8 +2083,9 @@
       <c r="F229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J229" s="1"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -1854,8 +2093,9 @@
       <c r="F230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -1863,8 +2103,9 @@
       <c r="F231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J231" s="1"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -1872,8 +2113,9 @@
       <c r="F232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232" s="1"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -1881,8 +2123,9 @@
       <c r="F233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233" s="1"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -1890,8 +2133,9 @@
       <c r="F234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234" s="1"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -1899,8 +2143,9 @@
       <c r="F235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J235" s="1"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -1908,8 +2153,9 @@
       <c r="F236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236" s="1"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -1917,8 +2163,9 @@
       <c r="F237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237" s="1"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -1926,8 +2173,9 @@
       <c r="F238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238" s="1"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -1935,8 +2183,9 @@
       <c r="F239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239" s="1"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -1944,8 +2193,9 @@
       <c r="F240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -1953,8 +2203,9 @@
       <c r="F241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -1962,8 +2213,9 @@
       <c r="F242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J242" s="1"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -1971,8 +2223,9 @@
       <c r="F243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243" s="1"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -1980,8 +2233,9 @@
       <c r="F244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244" s="1"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -1989,8 +2243,9 @@
       <c r="F245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245" s="1"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -1998,8 +2253,9 @@
       <c r="F246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246" s="1"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2007,8 +2263,9 @@
       <c r="F247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J247" s="1"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2016,8 +2273,9 @@
       <c r="F248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248" s="1"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2025,8 +2283,9 @@
       <c r="F249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249" s="1"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2034,6 +2293,7 @@
       <c r="F250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/master_box_list.xlsx
+++ b/data/master_box_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A590227C-BBFB-7247-B1CD-B180068449B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CF384F-75CE-A948-B334-F22E78B238A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="21880" windowHeight="16860" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="30240" yWindow="-1460" windowWidth="21880" windowHeight="16860" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="65">
   <si>
     <t>Box_Bag</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>RNA Box 2</t>
+  </si>
+  <si>
+    <t>80C freezer lower shelf</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,7 +823,10 @@
         <v>47</v>
       </c>
       <c r="L5" s="5">
-        <v>45758</v>
+        <v>45785</v>
+      </c>
+      <c r="M5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -881,7 +887,10 @@
         <v>47</v>
       </c>
       <c r="L7" s="5">
-        <v>45758</v>
+        <v>45785</v>
+      </c>
+      <c r="M7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1011,7 +1020,10 @@
         <v>47</v>
       </c>
       <c r="L12" s="5">
-        <v>45758</v>
+        <v>45785</v>
+      </c>
+      <c r="M12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1049,7 +1061,10 @@
         <v>47</v>
       </c>
       <c r="L13" s="5">
-        <v>45758</v>
+        <v>45785</v>
+      </c>
+      <c r="M13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1107,7 +1122,10 @@
         <v>47</v>
       </c>
       <c r="L15" s="5">
-        <v>45758</v>
+        <v>45785</v>
+      </c>
+      <c r="M15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1142,10 +1160,13 @@
         <v>47</v>
       </c>
       <c r="L16" s="5">
-        <v>45758</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45785</v>
+      </c>
+      <c r="M16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1177,10 +1198,13 @@
         <v>47</v>
       </c>
       <c r="L17" s="5">
-        <v>45758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45785</v>
+      </c>
+      <c r="M17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1212,7 +1236,10 @@
         <v>47</v>
       </c>
       <c r="L18" s="5">
-        <v>45758</v>
+        <v>45785</v>
+      </c>
+      <c r="M18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
